--- a/reportes/resumen_simplificado_2025-07-16.xlsx
+++ b/reportes/resumen_simplificado_2025-07-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,37 +778,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ENNS FRIESEN WILHELM</t>
+          <t>ENNS PENNER PEDRO</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8</v>
+        <v>288271.5</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>46100.23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ENNS PENNER PEDRO</t>
+          <t>FAST KLASSEN ISAACK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>288271.5</v>
+        <v>126816</v>
       </c>
       <c r="C28" t="n">
-        <v>46100.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FAST KLASSEN ISAACK</t>
+          <t>FC JUAREZ</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>126816</v>
+        <v>3273.13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,11 +817,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FC JUAREZ</t>
+          <t>FEHR BANMAN ERNESTO</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3273.13</v>
+        <v>499.99</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -830,11 +830,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FEHR BANMAN ERNESTO</t>
+          <t>FEHR BUECKERT ISAAK</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.99</v>
+        <v>370808.84</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -843,11 +843,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FEHR BUECKERT ISAAK</t>
+          <t>FEHR ENNS ISAAK</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>370808.84</v>
+        <v>83503</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -856,193 +856,193 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FEHR ENNS ISAAK</t>
+          <t>FEHR FRIESSEN HELENA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83503</v>
+        <v>38169.52</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FEHR FRIESSEN HELENA</t>
+          <t>FEHR HAM JACOB</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38169.52</v>
+        <v>74733</v>
       </c>
       <c r="C34" t="n">
-        <v>261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FEHR HAM JACOB</t>
+          <t>FEHR HAM PEDRO</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>74733</v>
+        <v>380800</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>52485</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FEHR HAM PEDRO</t>
+          <t>FEHR WIELER ABRAHAM</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380800</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>52485</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FEHR WIELER ABRAHAM</t>
+          <t>FEHR WIELER ABRAHAM (CUATAS)</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1620</v>
+        <v>1909.73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FEHR WIELER ABRAHAM (CUATAS)</t>
+          <t>FONDO DE ASEGURAMIENTO AGRICOLA ESCALA F.A.</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1909.73</v>
+        <v>2461.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FONDO DE ASEGURAMIENTO AGRICOLA ESCALA F.A.</t>
+          <t>FRIESSEN NEUDORF FRANZ</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>94000</v>
       </c>
       <c r="C39" t="n">
-        <v>2461.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FRIESSEN NEUDORF FRANZ</t>
+          <t>FRIESSEN PETERS FRANZ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94000</v>
+        <v>1436232</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FRIESSEN PETERS FRANZ</t>
+          <t>FRIESSEN WIELER ABRAHAM</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436232</v>
+        <v>178267.8</v>
       </c>
       <c r="C41" t="n">
-        <v>2720</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FRIESSEN WIELER ABRAHAM</t>
+          <t>FROESE GROENING WILHELM</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>178267.8</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>2760</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FROESE GROENING WILHELM</t>
+          <t>FROESSE LOEWEN JACOB</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>3880005.81</v>
       </c>
       <c r="C43" t="n">
-        <v>5000</v>
+        <v>243806.71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FROESSE LOEWEN JACOB</t>
+          <t>GIESBRECHT FRIESEN ABRAM</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3880005.81</v>
+        <v>124000</v>
       </c>
       <c r="C44" t="n">
-        <v>243806.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GIESBRECHT FRIESEN ABRAM</t>
+          <t>GIESBRECHT KLASSEN ISACK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>124000</v>
+        <v>240616</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>7262.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GIESBRECHT KLASSEN ISACK</t>
+          <t>GONZALEZ HERNANDEZ LUIS FERNANDO</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>240616</v>
+        <v>633.54</v>
       </c>
       <c r="C46" t="n">
-        <v>7262.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GONZALEZ HERNANDEZ LUIS FERNANDO</t>
+          <t>GONZALEZ PETERS BRUCE</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>633.54</v>
+        <v>50000</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1051,232 +1051,232 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GONZALEZ PETERS BRUCE</t>
+          <t>GRANOS Y SEMILLAS LA PERALTA SPR DE RL DE CV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50000</v>
+        <v>909901.3</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>98043.96000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GRANOS Y SEMILLAS LA PERALTA SPR DE RL DE CV</t>
+          <t>GRIJALVA VALENZUELA LEONARDO</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>909901.3</v>
+        <v>86100</v>
       </c>
       <c r="C49" t="n">
-        <v>98043.96000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GRIJALVA VALENZUELA LEONARDO</t>
+          <t>GUENTER PETERS CORNELIUS</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>86100</v>
+        <v>65384.1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>11880.64</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GUENTER PETERS CORNELIUS</t>
+          <t>GUENTER THIESSEN JACOB</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>65384.1</v>
+        <v>359989.38</v>
       </c>
       <c r="C51" t="n">
-        <v>11880.64</v>
+        <v>152190.29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GUENTER THIESSEN JACOB</t>
+          <t>GUENTER THIESSEN MARTIN</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>359989.38</v>
+        <v>1520970.21</v>
       </c>
       <c r="C52" t="n">
-        <v>152190.29</v>
+        <v>62065.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GUENTER THIESSEN MARTIN</t>
+          <t>GUENTHER KNELSEN JACOB</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1520970.21</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>62065.6</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GUENTHER KNELSEN JACOB</t>
+          <t>HARDER KLASSEN ELIZABETH</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="C54" t="n">
-        <v>8105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HARDER KLASSEN ELIZABETH</t>
+          <t>HARMS PETERS HERMAN</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3500000</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>9946.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HARMS PETERS HERMAN</t>
+          <t>HIEBERT WALL HEINRICH</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>73088</v>
       </c>
       <c r="C56" t="n">
-        <v>9946.09</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HIEBERT WALL HEINRICH</t>
+          <t>INTEGRAL COTTON SA DE CV</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>73088</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>7045</v>
+        <v>12263.89</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>INTEGRAL COTTON SA DE CV</t>
+          <t>KLASSEN DYCK SUSANA</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>12263.89</v>
+        <v>5700.94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>KLASSEN DYCK SUSANA</t>
+          <t>KLASSEN PETERS BENJAMIN</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>5700.94</v>
+        <v>57524.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>KLASSEN PETERS BENJAMIN</t>
+          <t>KNELSSEN FEHR JOHAN</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>225143.06</v>
       </c>
       <c r="C60" t="n">
-        <v>57524.8</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KNELSSEN FEHR JOHAN</t>
+          <t>KNELSSEN PETERS HENRICH</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>225143.06</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>2000</v>
+        <v>27035</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KNELSSEN PETERS HENRICH</t>
+          <t>KRAHN ENNS FRANCISCO</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>5440</v>
       </c>
       <c r="C62" t="n">
-        <v>27035</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KRAHN ENNS FRANCISCO</t>
+          <t>KRAHN ENNS ISIDRO</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5440</v>
+        <v>85980</v>
       </c>
       <c r="C63" t="n">
-        <v>1600</v>
+        <v>17990</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>KRAHN ENNS ISIDRO</t>
+          <t>KRAHN LOEWEN JACOB</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>85980</v>
+        <v>1750000</v>
       </c>
       <c r="C64" t="n">
-        <v>17990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KRAHN LOEWEN JACOB</t>
+          <t>KRAHN PETERS CORNELIO</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1750000</v>
+        <v>1836745</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,50 +1285,50 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KRAHN PETERS CORNELIO</t>
+          <t>KRAHN PETERS FRANCISCO</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1836745</v>
+        <v>247807.5</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>21516.26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KRAHN PETERS FRANCISCO</t>
+          <t>KRAHN PETERS ISIDRO</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>247807.5</v>
+        <v>101200</v>
       </c>
       <c r="C67" t="n">
-        <v>21516.26</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>KRAHN PETERS ISIDRO</t>
+          <t>LECHERIA LA PALMA</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>101200</v>
+        <v>51280</v>
       </c>
       <c r="C68" t="n">
-        <v>5460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LECHERIA LA PALMA</t>
+          <t>LOEWEN GIESBRECHT BERNHARD</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>51280</v>
+        <v>10560</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1337,11 +1337,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LOEWEN GIESBRECHT BERNHARD</t>
+          <t>LOEWEN GIESBRECHT PETER</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>10560</v>
+        <v>13762.5</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1350,37 +1350,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LOEWEN GIESBRECHT PETER</t>
+          <t>LOEWEN KLASSEN ENRIQUE</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>13762.5</v>
+        <v>3251580</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>102448</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LOEWEN KLASSEN ENRIQUE</t>
+          <t>LOEWEN PETERS JOHAN</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3251580</v>
+        <v>154841.78</v>
       </c>
       <c r="C72" t="n">
-        <v>102448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LOEWEN PETERS JOHAN</t>
+          <t>MAC GREGOR MAIGRE ROBERTO</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>154841.78</v>
+        <v>607028.63</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1389,11 +1389,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MAC GREGOR MAIGRE ROBERTO</t>
+          <t>MUNICIPIO DE SANTA ISABEL</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>607028.63</v>
+        <v>70000</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MUNICIPIO DE SANTA ISABEL</t>
+          <t>MURILLO JURADO SERGIO</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>70000</v>
+        <v>45239.04</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,544 +1415,544 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MURILLO JURADO SERGIO</t>
+          <t>NEUFELD DYCK JOHAN</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>45239.04</v>
+        <v>14950</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NEUFELD DYCK JOHAN</t>
+          <t>NEUFELD FROESSE JOHAN</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>14950</v>
+        <v>226500</v>
       </c>
       <c r="C77" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NEUFELD FROESSE JOHAN</t>
+          <t>NEUFELD GUENTER JACOB</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>226500</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NEUFELD GUENTER JACOB</t>
+          <t>NEUSTATER HARMS MARIA</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>184184.9</v>
       </c>
       <c r="C79" t="n">
-        <v>522</v>
+        <v>18485</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NEUSTATER HARMS MARIA</t>
+          <t>NOGALERA LOS MEZQUITES</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>184184.9</v>
+        <v>188307</v>
       </c>
       <c r="C80" t="n">
-        <v>18485</v>
+        <v>10995.61</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NOGALERA LOS MEZQUITES</t>
+          <t>OLAM GLOBAL AGRI MEXICO SA DE CV</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>188307</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>10995.61</v>
+        <v>48811.85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OLAM GLOBAL AGRI MEXICO SA DE CV</t>
+          <t>OLFERT FEHR PEDRO</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>450394.7</v>
       </c>
       <c r="C82" t="n">
-        <v>48811.85</v>
+        <v>37404.61</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OLFERT FEHR PEDRO</t>
+          <t>PETERS DYCK JACOB</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>450394.7</v>
+        <v>119626</v>
       </c>
       <c r="C83" t="n">
-        <v>37404.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PETERS DYCK JACOB</t>
+          <t>PETERS FEHR JUAN</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>119626</v>
+        <v>213195</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>14672.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PETERS FEHR JUAN</t>
+          <t>PETERS FRIESEN JACOBO</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>213195</v>
+        <v>1014000</v>
       </c>
       <c r="C85" t="n">
-        <v>14672.8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PETERS FRIESEN JACOBO</t>
+          <t>PETERS FROESE JOHN</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1014000</v>
+        <v>4923214.54</v>
       </c>
       <c r="C86" t="n">
-        <v>240</v>
+        <v>7075.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PETERS FROESE JOHN</t>
+          <t>PETERS GUENTHER FRANZ</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4923214.54</v>
+        <v>175719.2</v>
       </c>
       <c r="C87" t="n">
-        <v>7075.8</v>
+        <v>51645.96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PETERS GUENTHER FRANZ</t>
+          <t>PETERS KLASSEN PEDRO</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>175719.2</v>
+        <v>20495.04</v>
       </c>
       <c r="C88" t="n">
-        <v>51645.96</v>
+        <v>191.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PETERS KLASSEN PEDRO</t>
+          <t>PETERS LOEWEN GUSTAVO</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>20495.04</v>
+        <v>2102320</v>
       </c>
       <c r="C89" t="n">
-        <v>191.7</v>
+        <v>82880</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PETERS LOEWEN GUSTAVO</t>
+          <t>PETERS LOEWEN JACOB</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2102320</v>
+        <v>1368289</v>
       </c>
       <c r="C90" t="n">
-        <v>82880</v>
+        <v>255869.16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PETERS LOEWEN JACOB</t>
+          <t>PETERS THIESSEN PETER</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1368289</v>
+        <v>1470116.8</v>
       </c>
       <c r="C91" t="n">
-        <v>255869.16</v>
+        <v>134100.92</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PETERS THIESSEN PETER</t>
+          <t>PETERS WIEBE AGATHA</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1470116.8</v>
+        <v>925400</v>
       </c>
       <c r="C92" t="n">
-        <v>134100.92</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PETERS WIEBE AGATHA</t>
+          <t>PETERS WIELER DAVID</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>925400</v>
+        <v>30248.27</v>
       </c>
       <c r="C93" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PETERS WIELER DAVID</t>
+          <t>PRODUCTORA AGROPECUARIA PETERS SPR DE RL DE CV</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>30248.27</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PRODUCTORA AGROPECUARIA PETERS SPR DE RL DE CV</t>
+          <t>PRODUCTORES DE GRANOS Y SEMILLAS ENNS DYCK SPR DE RL DE CV</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2241588.05</v>
       </c>
       <c r="C95" t="n">
-        <v>6000</v>
+        <v>14364.68</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PRODUCTORES DE GRANOS Y SEMILLAS ENNS DYCK SPR DE RL DE CV</t>
+          <t>PRODUCTORES OJO DE LA CANOA NO SIRVE</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2241588.05</v>
+        <v>1.75</v>
       </c>
       <c r="C96" t="n">
-        <v>14364.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PRODUCTORES OJO DE LA CANOA NO SIRVE</t>
+          <t>QUINTANA SAENZ GILBERTO</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.75</v>
+        <v>1014681.38</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>9377.360000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>QUINTANA SAENZ GILBERTO</t>
+          <t>RANCHO AGRICOLA FROESSE SPR DE RL DE CV</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1014681.38</v>
+        <v>1797176</v>
       </c>
       <c r="C98" t="n">
-        <v>9377.360000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RANCHO AGRICOLA FROESSE SPR DE RL DE CV</t>
+          <t>RANCHO HARPE SPR DE RL DE CV</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1797176</v>
+        <v>109114</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>53274.69</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RANCHO HARPE SPR DE RL DE CV</t>
+          <t>RANCHO MATIANAS SPR DE RL DE CV</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>109114</v>
+        <v>92484</v>
       </c>
       <c r="C100" t="n">
-        <v>53274.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RANCHO MATIANAS SPR DE RL DE CV</t>
+          <t>RANCHO SIERRA PICO AZUL</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>92484</v>
+        <v>999610.67</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>213370.08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RANCHO SIERRA PICO AZUL</t>
+          <t>REFACCIONES Y CROMOS DEL NORTE</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>999610.67</v>
+        <v>3722.44</v>
       </c>
       <c r="C102" t="n">
-        <v>213370.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>REFACCIONES Y CROMOS DEL NORTE</t>
+          <t>REIMER FROESE CORNELIUS</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3722.44</v>
+        <v>242121</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>REIMER FROESE CORNELIUS</t>
+          <t>REIMER WALL FRANCISCO</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>242121</v>
+        <v>1904691.2</v>
       </c>
       <c r="C104" t="n">
-        <v>8140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>REIMER WALL FRANCISCO</t>
+          <t>REMPEL PETERS FARMS SPR DE RL DE CV</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1904691.2</v>
+        <v>14956.5</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>100677.95</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>REMPEL PETERS FARMS SPR DE RL DE CV</t>
+          <t>REMPEL REMPEL ENRIQUE</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>14956.5</v>
+        <v>101589.5</v>
       </c>
       <c r="C106" t="n">
-        <v>100677.95</v>
+        <v>498.05</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>REMPEL REMPEL ENRIQUE</t>
+          <t>REMPEL REMPEL GERARDO</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>101589.5</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>498.05</v>
+        <v>16250</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>REMPEL REMPEL GERARDO</t>
+          <t>REMPEL REMPEL JACOBO</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>765655.5</v>
       </c>
       <c r="C108" t="n">
-        <v>16250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>REMPEL REMPEL JACOBO</t>
+          <t>REMPEL REMPEL PETER</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>762215.5</v>
+        <v>157915.57</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>REMPEL REMPEL PETER</t>
+          <t>REMPEL SCHELLEMBERG BERNHARD</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>157915.57</v>
+        <v>939.6</v>
       </c>
       <c r="C110" t="n">
-        <v>6600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>REMPEL SCHELLEMBERG BERNHARD</t>
+          <t>REMPEL WIEBE WILHELM</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>939.6</v>
+        <v>116</v>
       </c>
       <c r="C111" t="n">
-        <v>9900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>REMPEL WIEBE WILHELM</t>
+          <t>REMPELS ACKERBAU SPR DE RL DE CV</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>116</v>
+        <v>300447.92</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>REMPELS ACKERBAU SPR DE RL DE CV</t>
+          <t>RULEY AGROPECUARIA</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>300447.92</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>264</v>
+        <v>834.2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RULEY AGROPECUARIA</t>
+          <t>SCHMITT NEUDORF BERNARDO</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>50378.8</v>
       </c>
       <c r="C114" t="n">
-        <v>834.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SCHMITT NEUDORF BERNARDO</t>
+          <t>THIESSEN ENNS FRANZ</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>50378.8</v>
+        <v>638540.9</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>116743.47</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>THIESSEN ENNS FRANZ</t>
+          <t>THIESSEN FROESE ABRAM (CAMPO6)</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>638540.9</v>
+        <v>-127608</v>
       </c>
       <c r="C116" t="n">
-        <v>116743.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>THIESSEN FROESE ABRAM (CAMPO6)</t>
+          <t>THIESSEN PETERS SUSANA</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-127608</v>
+        <v>1950000</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,89 +1961,89 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>THIESSEN PETERS SUSANA</t>
+          <t>THIESSEN REMPEL PEDRO</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1950000</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>THIESSEN REMPEL PEDRO</t>
+          <t>TORRES ALVAREZ DIEGO ARMANDO</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>27417.57</v>
       </c>
       <c r="C119" t="n">
-        <v>8800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TORRES ALVAREZ DIEGO ARMANDO</t>
+          <t>TRITON INDUSTRIAL SA DE CV</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>27417.57</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>341116.56</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TRITON INDUSTRIAL SA DE CV</t>
+          <t>VENTAS AL PUBLICO EN GENERAL</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>27115.27</v>
       </c>
       <c r="C121" t="n">
-        <v>341116.56</v>
+        <v>24.61</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>VENTAS AL PUBLICO EN GENERAL</t>
+          <t>VOTH FRIESEN ARON</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>27115.27</v>
+        <v>1111886.03</v>
       </c>
       <c r="C122" t="n">
-        <v>24.61</v>
+        <v>154814.23</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>VOTH FRIESEN ARON</t>
+          <t>WALL ENNS KLASS</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1111886.03</v>
+        <v>95200</v>
       </c>
       <c r="C123" t="n">
-        <v>154814.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>WALL ENNS KLASS</t>
+          <t>WALL WALL JACOB</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>95200</v>
+        <v>780</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,76 +2052,76 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WALL WALL JACOB</t>
+          <t>WALL WALL JUAN</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>780</v>
+        <v>374050.3</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>7877.21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>WALL WALL JUAN</t>
+          <t>WIEBE DYCK BERNHARD</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>374050.3</v>
+        <v>2565854.4</v>
       </c>
       <c r="C126" t="n">
-        <v>7877.21</v>
+        <v>80353.25999999999</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WIEBE DYCK BERNHARD</t>
+          <t>WIEBE GROENING JACOB</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2565854.4</v>
+        <v>1462308.8</v>
       </c>
       <c r="C127" t="n">
-        <v>80353.25999999999</v>
+        <v>132580.76</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>WIEBE GROENING JACOB</t>
+          <t>WIEBE LETKEMAN WILHELM</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1462308.8</v>
+        <v>762384.8</v>
       </c>
       <c r="C128" t="n">
-        <v>132580.76</v>
+        <v>12457.52</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>WIEBE LETKEMAN WILHELM</t>
+          <t>WOLF KLASSEN PEDRO</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>762384.8</v>
+        <v>923155.9399999999</v>
       </c>
       <c r="C129" t="n">
-        <v>12457.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>WOLF KLASSEN PEDRO</t>
+          <t>YAÑEZ GONZALEZ GUMARO</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>923155.9399999999</v>
+        <v>66424.05</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,26 +2130,13 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>YAÑEZ GONZALEZ GUMARO</t>
+          <t>ZAGIS SA DE CV</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>66424.05</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>ZAGIS SA DE CV</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0</v>
-      </c>
-      <c r="C132" t="n">
         <v>273841.57</v>
       </c>
     </row>
